--- a/theo/outputs/IYE/correlations.xlsx
+++ b/theo/outputs/IYE/correlations.xlsx
@@ -532,52 +532,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.08477669172502975</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.05577664014924214</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1065315088207544</v>
+        <v>-0.02997457609459524</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6060763121132355</v>
+        <v>-0.1336332716872275</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.06607686528660485</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05711282923384345</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05686468825660466</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.4095071830623276</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.4060418733229301</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05711282923384345</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05686468825660466</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.4095071830623276</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.4060418733229301</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.05942391687459775</v>
+        <v>0.06357099892462867</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.02903702169379556</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.08293271414155323</v>
+        <v>0.2123113649092845</v>
       </c>
     </row>
     <row r="3">
@@ -587,55 +587,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.81364948506655</v>
+        <v>0.08477669172502975</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.0416196029673538</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.1429189391749336</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.5928938531813331</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4351000883046313</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.0830136116989714</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.08285582381256654</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.4795954385608894</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.4770623200796523</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.08731879195916833</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.0874570752339139</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.4466162349427708</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.4440766306745376</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.07006115379368928</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.0809294372093337</v>
       </c>
       <c r="R3" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.1123914102132448</v>
       </c>
     </row>
     <row r="4">
@@ -645,55 +645,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08342261253823323</v>
+        <v>0.05577664014924214</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.145135095128225</v>
+        <v>-0.0416196029673538</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7311370682056839</v>
+        <v>-0.02468852457468555</v>
       </c>
       <c r="F4" t="n">
-        <v>0.120047865316206</v>
+        <v>-0.1080178314008032</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04721912462364202</v>
+        <v>0.1426541915104106</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.0712525395094462</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.07447749509044807</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.1711668479499836</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.1715720176853584</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01327111248337664</v>
+        <v>-0.02466968313602953</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01184706874126569</v>
+        <v>-0.02518232793407166</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.1738906012537276</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.1742415925550461</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.7465588737734341</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.280223623358801</v>
+        <v>0.7529123156203024</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.8405771482829072</v>
       </c>
     </row>
     <row r="5">
@@ -703,55 +703,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1065315088207544</v>
+        <v>-0.02997457609459524</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2254182062328378</v>
+        <v>-0.1429189391749336</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7311370682056839</v>
+        <v>-0.02468852457468555</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2561593664437714</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1265238137654046</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.06445582003235492</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.06409907075394604</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04052226721051069</v>
+        <v>-0.005827836688168452</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04106046215530793</v>
+        <v>-0.006484822997006853</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.004314397988089729</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.004186056150485898</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.03818583817582815</v>
+        <v>-0.004319690427617753</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03845184227154824</v>
+        <v>-0.00494528953391893</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.6835480002829003</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1104902172373193</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6326065076745643</v>
+        <v>-0.03003333306551346</v>
       </c>
     </row>
     <row r="6">
@@ -761,55 +761,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6060763121132355</v>
+        <v>-0.1336332716872275</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8965886917760298</v>
+        <v>-0.5928938531813331</v>
       </c>
       <c r="D6" t="n">
-        <v>0.120047865316206</v>
+        <v>-0.1080178314008032</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2463878643571651</v>
+        <v>0.2561593664437714</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.4822688443702955</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03568980690684907</v>
+        <v>-0.0005117441755196058</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03613796276230393</v>
+        <v>-0.0004509582563641713</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1379851151712524</v>
+        <v>-0.06575139420251722</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1409978309312717</v>
+        <v>-0.06916737810398393</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.06421767089427051</v>
       </c>
       <c r="M6" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.06531674037327713</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.1225037330819913</v>
+        <v>-0.05519914750413114</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.1253690864555329</v>
+        <v>-0.05836812183240747</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.2491508493568375</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.1138486324508112</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1536914751549154</v>
       </c>
     </row>
     <row r="7">
@@ -819,55 +819,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.8378179650071893</v>
+        <v>-0.06607686528660485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7944472422950926</v>
+        <v>0.4351000883046313</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04721912462364202</v>
+        <v>0.1426541915104106</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1755623470748917</v>
+        <v>-0.1265238137654046</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7125446195693942</v>
+        <v>-0.4822688443702955</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.09661679530880876</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.09673826206365134</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5814040162845091</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5836800866546964</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1435085783101203</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1446503132345095</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.5896620000899655</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.5921736525570553</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.189341975904707</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.02727410537037472</v>
       </c>
       <c r="R7" t="n">
-        <v>0.131579400780076</v>
+        <v>0.1646110466938328</v>
       </c>
     </row>
     <row r="8">
@@ -877,55 +877,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05711282923384345</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05086736036433592</v>
+        <v>0.0830136116989714</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0858811889768662</v>
+        <v>0.0712525395094462</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.07610673696868818</v>
+        <v>0.06445582003235492</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.03568980690684907</v>
+        <v>-0.0005117441755196058</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.05563146666189778</v>
+        <v>-0.09661679530880876</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998858124143184</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1744114635052909</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1744579181865815</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01838332978781464</v>
+        <v>0.04333254049290363</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01877241932169961</v>
+        <v>0.04373707959764955</v>
       </c>
       <c r="N8" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1843563999942117</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.184311571077592</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.03026040668044333</v>
+        <v>0.007663325377820615</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.0712000810632681</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.03559336177085288</v>
       </c>
     </row>
     <row r="9">
@@ -935,55 +935,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05686468825660466</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05085626812506253</v>
+        <v>0.08285582381256654</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.08542038569447827</v>
+        <v>0.07447749509044807</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07542991841155572</v>
+        <v>0.06409907075394604</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03613796276230393</v>
+        <v>-0.0004509582563641713</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05553489957798313</v>
+        <v>-0.09673826206365134</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998858124143184</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1745659142018994</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1746208399697051</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01814662594676403</v>
+        <v>0.04317000544070022</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01847381633338832</v>
+        <v>0.04358117997494566</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1845531689239536</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1845172581372702</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.03004065622586707</v>
+        <v>0.01039596507389233</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.07035640550997417</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.03789171419598936</v>
       </c>
     </row>
     <row r="10">
@@ -993,55 +993,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.4095071830623276</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1543577420451838</v>
+        <v>0.4795954385608894</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1187843366886131</v>
+        <v>-0.1711668479499836</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04052226721051069</v>
+        <v>-0.005827836688168452</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1379851151712524</v>
+        <v>-0.06575139420251722</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.4774252138435003</v>
+        <v>-0.5814040162845091</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1744114635052909</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1745659142018994</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999291913558236</v>
       </c>
       <c r="L10" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.06473961481179974</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.0656373946507008</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9811452968281937</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.981285342967853</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.1212164284593267</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.1251883129352274</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.0588651917657562</v>
       </c>
     </row>
     <row r="11">
@@ -1051,55 +1051,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.4060418733229301</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1514699655870215</v>
+        <v>0.4770623200796523</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1157989976916509</v>
+        <v>-0.1715720176853584</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04106046215530793</v>
+        <v>-0.006484822997006853</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1409978309312717</v>
+        <v>-0.06916737810398393</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.4798142812877074</v>
+        <v>-0.5836800866546964</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1744579181865815</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1746208399697051</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999291913558236</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.06448046540704389</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.06536307453420685</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.981108236639623</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9813835885106639</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.1210478388106419</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.1248708789588129</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.06015856606573656</v>
       </c>
     </row>
     <row r="12">
@@ -1109,55 +1109,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01189608044381432</v>
+        <v>0.05711282923384345</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.06391780122695481</v>
+        <v>-0.08731879195916833</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01327111248337664</v>
+        <v>-0.02466968313602953</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05329307970608078</v>
+        <v>0.004314397988089729</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05401108028633362</v>
+        <v>0.06421767089427051</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08573256441210654</v>
+        <v>-0.1435085783101203</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01838332978781464</v>
+        <v>0.04333254049290363</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01814662594676403</v>
+        <v>0.04317000544070022</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02839138939445308</v>
+        <v>0.06473961481179974</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02631119308004725</v>
+        <v>0.06448046540704389</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998858124143184</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1744114635052909</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1744579181865815</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.02961924710027854</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.08850757219279588</v>
       </c>
       <c r="R12" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.02152833623866269</v>
       </c>
     </row>
     <row r="13">
@@ -1167,55 +1167,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01235418030949918</v>
+        <v>0.05686468825660466</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.06387377182102309</v>
+        <v>-0.0874570752339139</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01184706874126569</v>
+        <v>-0.02518232793407166</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05204038429961724</v>
+        <v>0.004186056150485898</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05328539815585655</v>
+        <v>0.06531674037327713</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.08607380922206526</v>
+        <v>-0.1446503132345095</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01877241932169961</v>
+        <v>0.04373707959764955</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01847381633338832</v>
+        <v>0.04358117997494566</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02954189352736597</v>
+        <v>0.0656373946507008</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02742452766327155</v>
+        <v>0.06536307453420685</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9995196969242609</v>
+        <v>0.9998858124143184</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1745659142018994</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1746208399697051</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.02991071184526704</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.09047312499220792</v>
       </c>
       <c r="R13" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.02186469185589083</v>
       </c>
     </row>
     <row r="14">
@@ -1225,55 +1225,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2328760030780355</v>
+        <v>0.4095071830623276</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1343745677431482</v>
+        <v>0.4466162349427708</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1234156758769617</v>
+        <v>-0.1738906012537276</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.03818583817582815</v>
+        <v>-0.004319690427617753</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1225037330819913</v>
+        <v>-0.05519914750413114</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4827471233815918</v>
+        <v>-0.5896620000899655</v>
       </c>
       <c r="H14" t="n">
-        <v>0.164691426934996</v>
+        <v>0.1843563999942117</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1648518449429154</v>
+        <v>0.1845531689239536</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9775092980901551</v>
+        <v>0.9811452968281937</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9770124487762495</v>
+        <v>0.981108236639623</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1619347427117349</v>
+        <v>0.1744114635052909</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1620732130685436</v>
+        <v>0.1745659142018994</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999291913558236</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.1254380828526789</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.1027976442920109</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.06401865521145078</v>
       </c>
     </row>
     <row r="15">
@@ -1283,55 +1283,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2394007302486575</v>
+        <v>0.4060418733229301</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1314264541075213</v>
+        <v>0.4440766306745376</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1202710080448487</v>
+        <v>-0.1742415925550461</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.03845184227154824</v>
+        <v>-0.00494528953391893</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1253690864555329</v>
+        <v>-0.05836812183240747</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.4852973875470592</v>
+        <v>-0.5921736525570553</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1652840017653004</v>
+        <v>0.184311571077592</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1655616818715602</v>
+        <v>0.1845172581372702</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9774704811912206</v>
+        <v>0.981285342967853</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9775264424518051</v>
+        <v>0.9813835885106639</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1624630100010374</v>
+        <v>0.1744579181865815</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1627246328410958</v>
+        <v>0.1746208399697051</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9997086032562142</v>
+        <v>0.9999291913558236</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.1252593725064993</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.1033005888932355</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.06523103570362442</v>
       </c>
     </row>
     <row r="16">
@@ -1341,55 +1341,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.05942391687459775</v>
+        <v>0.06357099892462867</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1243466933151483</v>
+        <v>0.07006115379368928</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3603219624554981</v>
+        <v>0.7465588737734341</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3729590622237404</v>
+        <v>-0.6835480002829003</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1736236287571326</v>
+        <v>-0.2491508493568375</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1758310361924029</v>
+        <v>0.189341975904707</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.03026040668044333</v>
+        <v>0.007663325377820615</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.03004065622586707</v>
+        <v>0.01039596507389233</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1061422340971321</v>
+        <v>-0.1212164284593267</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1013462259039337</v>
+        <v>-0.1210478388106419</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.04774522972927903</v>
+        <v>-0.02961924710027854</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.04832629936156562</v>
+        <v>-0.02991071184526704</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.1141471232544586</v>
+        <v>-0.1254380828526789</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.1095766330943634</v>
+        <v>-0.1252593725064993</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.2912063377051314</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.6349437271147017</v>
       </c>
     </row>
     <row r="17">
@@ -1399,55 +1399,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0739577429103636</v>
+        <v>-0.02903702169379556</v>
       </c>
       <c r="C17" t="n">
-        <v>0.144999567334247</v>
+        <v>-0.0809294372093337</v>
       </c>
       <c r="D17" t="n">
-        <v>0.280223623358801</v>
+        <v>0.7529123156203024</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.276993163075869</v>
+        <v>-0.1104902172373193</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1906880017296592</v>
+        <v>-0.1138486324508112</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2237951246308284</v>
+        <v>0.02727410537037472</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.05459993377388558</v>
+        <v>-0.0712000810632681</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0536760860182959</v>
+        <v>-0.07035640550997417</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.1542906496720679</v>
+        <v>-0.1251883129352274</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.1489074877222462</v>
+        <v>-0.1248708789588129</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.02380560039217438</v>
+        <v>-0.08850757219279588</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.02574432881879462</v>
+        <v>-0.09047312499220792</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1587185034411729</v>
+        <v>-0.1027976442920109</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.1535864176937986</v>
+        <v>-0.1033005888932355</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7598484348079635</v>
+        <v>0.2912063377051314</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.5757255320502107</v>
       </c>
     </row>
     <row r="18">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08293271414155323</v>
+        <v>0.2123113649092845</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08371090259111397</v>
+        <v>0.1123914102132448</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9484596588276909</v>
+        <v>0.8405771482829072</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6326065076745643</v>
+        <v>-0.03003333306551346</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1283783837686706</v>
+        <v>-0.1536914751549154</v>
       </c>
       <c r="G18" t="n">
-        <v>0.131579400780076</v>
+        <v>0.1646110466938328</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.07629100620883848</v>
+        <v>0.03559336177085288</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.07503856081897804</v>
+        <v>0.03789171419598936</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.09294398682574505</v>
+        <v>-0.0588651917657562</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.08888643499411758</v>
+        <v>-0.06015856606573656</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01423941505429584</v>
+        <v>-0.02152833623866269</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01245764775529891</v>
+        <v>-0.02186469185589083</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.09725628004518826</v>
+        <v>-0.06401865521145078</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.0931030164476196</v>
+        <v>-0.06523103570362442</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4249488996045038</v>
+        <v>0.6349437271147017</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3393374054043992</v>
+        <v>0.5757255320502107</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -1624,52 +1624,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.5121197369670101</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5059116106770681</v>
+        <v>0.05048531302697135</v>
       </c>
       <c r="E2" t="n">
-        <v>0.510910672846745</v>
+        <v>0.005605588084739516</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9125292365146231</v>
+        <v>0.003586850340304746</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.5358089724042769</v>
       </c>
       <c r="H2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02579559927192835</v>
       </c>
       <c r="I2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02571574618681025</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1406956522215289</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1426944862489721</v>
       </c>
       <c r="L2" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02579559927192835</v>
       </c>
       <c r="M2" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02571574618681025</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1406956522215289</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1426944862489721</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.03651118714694847</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.02665454554924359</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.1186289632850996</v>
       </c>
     </row>
     <row r="3">
@@ -1679,55 +1679,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1863684743311797</v>
+        <v>-0.5121197369670101</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.07534010694356828</v>
+        <v>0.01177220903901948</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.03053001655992623</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.161665849332749</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8474021444254826</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.04147545207299708</v>
       </c>
       <c r="I3" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.04146164592158747</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2754066672545786</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.2739312014623823</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05572746466726143</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05570706572371494</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2559276194442923</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2544467414864979</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.03034697801047252</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.05784247736331166</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.01697568637122891</v>
       </c>
     </row>
     <row r="4">
@@ -1737,55 +1737,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5059116106770681</v>
+        <v>0.05048531302697135</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.07534010694356828</v>
+        <v>0.01177220903901948</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7252365899043799</v>
+        <v>-0.004628235569588578</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5221950356311871</v>
+        <v>-0.06728621944049591</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.05447785358563481</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.05112560269563408</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.05250434617335756</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.07489449423266015</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.07577448156193189</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.008499475188913396</v>
+        <v>-0.0269463001705275</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.008856118381615683</v>
+        <v>-0.02724678735051681</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.08298242001354435</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.0839335586169309</v>
       </c>
       <c r="P4" t="n">
-        <v>0.381730299763587</v>
+        <v>0.7327830431136251</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.852558020565932</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.7510580465478245</v>
       </c>
     </row>
     <row r="5">
@@ -1795,55 +1795,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.510910672846745</v>
+        <v>0.005605588084739516</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.068031314596023</v>
+        <v>-0.03053001655992623</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7252365899043799</v>
+        <v>-0.004628235569588578</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.2404254313351931</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.01365842075523743</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.03991952900664657</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.04003327652612491</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.04310050022836153</v>
+        <v>-0.03052032825211904</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.04146675768920986</v>
+        <v>-0.03159305569910517</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006301670928776885</v>
+        <v>-0.03780312801030496</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005858916382482694</v>
+        <v>-0.03790537596228914</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.04289473635930479</v>
+        <v>-0.03704046996090161</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.04105360920728408</v>
+        <v>-0.03811520369338766</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.6838465560005058</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1028698530854725</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2729643625181233</v>
+        <v>-0.02404245772914236</v>
       </c>
     </row>
     <row r="6">
@@ -1853,55 +1853,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9125292365146231</v>
+        <v>0.003586850340304746</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1162448276679024</v>
+        <v>-0.161665849332749</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5221950356311871</v>
+        <v>-0.06728621944049591</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5727257400712382</v>
+        <v>0.2404254313351931</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.06497247847310822</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.02997330625356038</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.03046068808228044</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.1749278330219032</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.1801066583717017</v>
       </c>
       <c r="L6" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.02538023988026969</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.02543002967933717</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.1648782741741154</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.1699141160136749</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.2126964977724528</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.04034079562242691</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1345539026741403</v>
       </c>
     </row>
     <row r="7">
@@ -1911,55 +1911,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1169963410590373</v>
+        <v>-0.5358089724042769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8251503123414906</v>
+        <v>0.8474021444254826</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.003088083308112179</v>
+        <v>0.05447785358563481</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04329106323041166</v>
+        <v>-0.01365842075523743</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.07515990729908592</v>
+        <v>-0.06497247847310822</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.06372979470182789</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.0636377811787433</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2770383447001431</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.2783868516300432</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.07339627788556682</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.07301514117300763</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.2788057603272384</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.2801096445803088</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.04904301685603318</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.06044200618953494</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.0100193973506576</v>
       </c>
     </row>
     <row r="8">
@@ -1969,55 +1969,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02579559927192835</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05745417635233986</v>
+        <v>0.04147545207299708</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.01481616675515068</v>
+        <v>0.05112560269563408</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.0260551836417947</v>
+        <v>0.03991952900664657</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.001222097019639046</v>
+        <v>-0.02997330625356038</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.04137289881328313</v>
+        <v>-0.06372979470182789</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9996481006561005</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1899575303906869</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1900249277553054</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.05712301967457724</v>
+        <v>0.008221775412084751</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.05575559682641544</v>
+        <v>0.008778751357152651</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1906315780270918</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1904977044849336</v>
       </c>
       <c r="P8" t="n">
-        <v>0.009634208144115372</v>
+        <v>0.008854243278077682</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.05128459686476633</v>
       </c>
       <c r="R8" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.02800341608848723</v>
       </c>
     </row>
     <row r="9">
@@ -2027,55 +2027,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02571574618681025</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05751797274156304</v>
+        <v>0.04146164592158747</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01347445623176441</v>
+        <v>0.05250434617335756</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02603182249595326</v>
+        <v>0.04003327652612491</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.001500437997579193</v>
+        <v>-0.03046068808228044</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04140267268723049</v>
+        <v>-0.0636377811787433</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9996481006561005</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1899665371935345</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1901119627349417</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.05612797095174527</v>
+        <v>0.008361672045867741</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.05479620814956767</v>
+        <v>0.008881518327108954</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1905560072180972</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1904969747740575</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01145849573103268</v>
+        <v>0.009838265565628683</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.04916409327156705</v>
       </c>
       <c r="R9" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.02903694438265118</v>
       </c>
     </row>
     <row r="10">
@@ -2085,55 +2085,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1406956522215289</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3165778952073075</v>
+        <v>0.2754066672545786</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1141863988115377</v>
+        <v>-0.07489449423266015</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.04310050022836153</v>
+        <v>-0.03052032825211904</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.071658661735564</v>
+        <v>-0.1749278330219032</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2746334294809232</v>
+        <v>-0.2770383447001431</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1899575303906869</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1899665371935345</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997714346032788</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01329901118695193</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01337049159264947</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9666080255044427</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9663647975399487</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.03387738787602433</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.00199217092546411</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.06910000933070952</v>
+        <v>0.01257989109378708</v>
       </c>
     </row>
     <row r="11">
@@ -2143,55 +2143,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1426944862489721</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3116488099819858</v>
+        <v>0.2739312014623823</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1110284537229708</v>
+        <v>-0.07577448156193189</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.04146675768920986</v>
+        <v>-0.03159305569910517</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.06835596837026831</v>
+        <v>-0.1801066583717017</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2793758555011018</v>
+        <v>-0.2783868516300432</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1900249277553054</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1901119627349417</v>
       </c>
       <c r="J11" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997714346032788</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01385135722727016</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01389749996561348</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9664752063851172</v>
       </c>
       <c r="O11" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9666677697893661</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.0337894978009077</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.004416515288474822</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.06864538427487206</v>
+        <v>0.01234445539529773</v>
       </c>
     </row>
     <row r="12">
@@ -2201,55 +2201,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.976926616166923e-05</v>
+        <v>0.02579559927192835</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.05746864338659129</v>
+        <v>-0.05572746466726143</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008499475188913396</v>
+        <v>-0.0269463001705275</v>
       </c>
       <c r="E12" t="n">
-        <v>0.006301670928776885</v>
+        <v>-0.03780312801030496</v>
       </c>
       <c r="F12" t="n">
-        <v>5.893761662137863e-05</v>
+        <v>0.02538023988026969</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06000405957403208</v>
+        <v>-0.07339627788556682</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.05712301967457724</v>
+        <v>0.008221775412084751</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.05612797095174527</v>
+        <v>0.008361672045867741</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004286069850222709</v>
+        <v>0.01329901118695193</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003410368111363741</v>
+        <v>0.01385135722727016</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9996481006561005</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1899575303906869</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1900249277553054</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.005114202627379642</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.0353089888877449</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.007005557741621795</v>
+        <v>-0.06867990758276682</v>
       </c>
     </row>
     <row r="13">
@@ -2259,55 +2259,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.61284792987454e-05</v>
+        <v>0.02571574618681025</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.05734422810605635</v>
+        <v>-0.05570706572371494</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.008856118381615683</v>
+        <v>-0.02724678735051681</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005858916382482694</v>
+        <v>-0.03790537596228914</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0004431091117650667</v>
+        <v>0.02543002967933717</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.05982699731207831</v>
+        <v>-0.07301514117300763</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.05575559682641544</v>
+        <v>0.008778751357152651</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.05479620814956767</v>
+        <v>0.008881518327108954</v>
       </c>
       <c r="J13" t="n">
-        <v>0.004184491722236913</v>
+        <v>0.01337049159264947</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003251022319510548</v>
+        <v>0.01389749996561348</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9994725245174523</v>
+        <v>0.9996481006561005</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1899665371935345</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1901119627349417</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.005018050597500966</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.03412737555620862</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.006349395072829069</v>
+        <v>-0.06875943677324171</v>
       </c>
     </row>
     <row r="14">
@@ -2317,55 +2317,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1085302284170656</v>
+        <v>0.1406956522215289</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2971891830814635</v>
+        <v>0.2559276194442923</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1171884511774632</v>
+        <v>-0.08298242001354435</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04289473635930479</v>
+        <v>-0.03704046996090161</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0714630892871788</v>
+        <v>-0.1648782741741154</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2783301762509222</v>
+        <v>-0.2788057603272384</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1583508498118242</v>
+        <v>0.1906315780270918</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1587056743767625</v>
+        <v>0.1905560072180972</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9733400454702574</v>
+        <v>0.9666080255044427</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9728037310005035</v>
+        <v>0.9664752063851172</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1694720755179507</v>
+        <v>0.1899575303906869</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1696123846062219</v>
+        <v>0.1899665371935345</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997714346032788</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.03533771722732015</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.06202249182197739</v>
+        <v>0.03276461201171084</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.01189127316170044</v>
       </c>
     </row>
     <row r="15">
@@ -2375,55 +2375,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.101977857521928</v>
+        <v>0.1426944862489721</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2922350565058527</v>
+        <v>0.2544467414864979</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.113877634034877</v>
+        <v>-0.0839335586169309</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04105360920728408</v>
+        <v>-0.03811520369338766</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.06818898008088864</v>
+        <v>-0.1699141160136749</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2830609441876975</v>
+        <v>-0.2801096445803088</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1586691146152148</v>
+        <v>0.1904977044849336</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1591522229518865</v>
+        <v>0.1904969747740575</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9728538264299138</v>
+        <v>0.9663647975399487</v>
       </c>
       <c r="K15" t="n">
-        <v>0.973138845170242</v>
+        <v>0.9666677697893661</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1696834480070886</v>
+        <v>0.1900249277553054</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1699481749303527</v>
+        <v>0.1901119627349417</v>
       </c>
       <c r="N15" t="n">
-        <v>0.999573296525938</v>
+        <v>0.9997714346032788</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.03529402558081358</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.05937294999940751</v>
+        <v>0.03020420618899275</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.0123091278128896</v>
       </c>
     </row>
     <row r="16">
@@ -2433,55 +2433,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.01675235880231756</v>
+        <v>0.03651118714694847</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002093105334223094</v>
+        <v>0.03034697801047252</v>
       </c>
       <c r="D16" t="n">
-        <v>0.381730299763587</v>
+        <v>0.7327830431136251</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3595174584290827</v>
+        <v>-0.6838465560005058</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.06625647771272436</v>
+        <v>-0.2126964977724528</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05426317417733123</v>
+        <v>0.04904301685603318</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009634208144115372</v>
+        <v>0.008854243278077682</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01145849573103268</v>
+        <v>0.009838265565628683</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0947225892048157</v>
+        <v>-0.03387738787602433</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.09271364702631031</v>
+        <v>-0.0337894978009077</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.02458622991807977</v>
+        <v>0.005114202627379642</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.02449770104646163</v>
+        <v>0.005018050597500966</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.09929807634257969</v>
+        <v>-0.03533771722732015</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.09736386594397382</v>
+        <v>-0.03529402558081358</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.434695154873563</v>
       </c>
       <c r="R16" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5643574009216838</v>
       </c>
     </row>
     <row r="17">
@@ -2491,55 +2491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.09068383327879143</v>
+        <v>-0.02665454554924359</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01404586819640572</v>
+        <v>0.05784247736331166</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2374686446262153</v>
+        <v>0.852558020565932</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2085933603775491</v>
+        <v>-0.1028698530854725</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1241394100352008</v>
+        <v>-0.04034079562242691</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0231474037103305</v>
+        <v>0.06044200618953494</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04275726286789743</v>
+        <v>-0.05128459686476633</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04590743840772638</v>
+        <v>-0.04916409327156705</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.06280013052412227</v>
+        <v>-0.00199217092546411</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0600480265151005</v>
+        <v>-0.004416515288474822</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.001574791682833234</v>
+        <v>0.0353089888877449</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.001475047549576377</v>
+        <v>0.03412737555620862</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.06202249182197739</v>
+        <v>0.03276461201171084</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.05937294999940751</v>
+        <v>0.03020420618899275</v>
       </c>
       <c r="P17" t="n">
-        <v>0.6018716459332414</v>
+        <v>0.434695154873563</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.4860837271626764</v>
       </c>
     </row>
     <row r="18">
@@ -2549,52 +2549,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1105540313008141</v>
+        <v>0.1186289632850996</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.02135046076436313</v>
+        <v>0.01697568637122891</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5977186620995151</v>
+        <v>0.7510580465478245</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2729643625181233</v>
+        <v>-0.02404245772914236</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1269503986185143</v>
+        <v>-0.1345539026741403</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01950943368362832</v>
+        <v>0.0100193973506576</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02036847947948598</v>
+        <v>0.02800341608848723</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02337317420084243</v>
+        <v>0.02903694438265118</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.06910000933070952</v>
+        <v>0.01257989109378708</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.06864538427487206</v>
+        <v>0.01234445539529773</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.007005557741621795</v>
+        <v>-0.06867990758276682</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.006349395072829069</v>
+        <v>-0.06875943677324171</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.07167927480566143</v>
+        <v>-0.01189127316170044</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.07089367457370295</v>
+        <v>-0.0123091278128896</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4760369273737171</v>
+        <v>0.5643574009216838</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5442187077348978</v>
+        <v>0.4860837271626764</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
@@ -2716,52 +2716,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.5281971440799501</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.2199781351154965</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.2361845305949135</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.6547762420782102</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.5350021879741386</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.005073980966616101</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.005173407296778185</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.05630490221085876</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.05664804820026945</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.005073980966616101</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.005173407296778185</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.05630490221085876</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.05664804820026945</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.02832626862665198</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.08755025653870342</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.105849097511963</v>
       </c>
     </row>
     <row r="3">
@@ -2771,55 +2771,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5421497698657863</v>
+        <v>0.5281971440799501</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.1770046695939287</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.1848532387308331</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.503717308306684</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9600880484825668</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02485324357121216</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02417193600353505</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1306039916151416</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1232555931111147</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02876835279078499</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.0293155448395441</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1206423929794598</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.113401105810771</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.03201328201338007</v>
+        <v>0.01479912527287463</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.08319738517059741</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.0237062193131504</v>
+        <v>0.02556200174223759</v>
       </c>
     </row>
     <row r="4">
@@ -2829,55 +2829,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5670590147464997</v>
+        <v>-0.2199781351154965</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4151429783731446</v>
+        <v>-0.1770046695939287</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.2579963668111549</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.1966546048662146</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.1646675094754869</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.008412173814428259</v>
+        <v>0.03841081071400285</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.007932935706425738</v>
+        <v>0.04469992483880694</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.0247843873119773</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.02242431459498696</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.05815051796110209</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.06111870738646112</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.01321030996982399</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.01109872964443182</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.5934652689365397</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.5809145654800234</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.4839055081404902</v>
       </c>
     </row>
     <row r="5">
@@ -2887,55 +2887,55 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5598373462614268</v>
+        <v>-0.2361845305949135</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4018148723993666</v>
+        <v>-0.1848532387308331</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8079688713323099</v>
+        <v>0.2579963668111549</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.3585161017386986</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.177449334700578</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.02412070934935011</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.02558214649378662</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.01084543295593506</v>
+        <v>-0.02423491115362121</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01124038349574497</v>
+        <v>-0.02446500548602659</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004013866086611113</v>
+        <v>-0.01086581895867529</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003784897616836014</v>
+        <v>-0.01188745023032048</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.01088924325053562</v>
+        <v>-0.03417151635587255</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.01117514480216602</v>
+        <v>-0.03511069197529559</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.6244999081442383</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1398101858192076</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.003712506325054677</v>
       </c>
     </row>
     <row r="6">
@@ -2945,55 +2945,55 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7692100806451468</v>
+        <v>-0.6547762420782102</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5490318922553734</v>
+        <v>-0.503717308306684</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7056802624381007</v>
+        <v>0.1966546048662146</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7289264144823233</v>
+        <v>0.3585161017386986</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.4930468780923082</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001275065907672057</v>
+        <v>-0.008703235844038941</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0009906822905251609</v>
+        <v>-0.008949608869013572</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.01350520231868173</v>
+        <v>-0.03234746858608083</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.01373981472560285</v>
+        <v>-0.03153823550707292</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.0009853364569797271</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002326493781731304</v>
+        <v>-0.0006416352183754023</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.01329062417733071</v>
+        <v>-0.0309135937111044</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.01350674418492096</v>
+        <v>-0.03001540568997987</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1396921401374851</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.09970895457070136</v>
+        <v>0.005360170795150452</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1048579714081211</v>
       </c>
     </row>
     <row r="7">
@@ -3003,55 +3003,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5241907629105079</v>
+        <v>0.5350021879741386</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9098819379908119</v>
+        <v>0.9600880484825668</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.395918552233695</v>
+        <v>-0.1646675094754869</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.4004099527217427</v>
+        <v>-0.177449334700578</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5476723223833594</v>
+        <v>-0.4930468780923082</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02764739855799569</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.02841295391325693</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1519108909407635</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1584364909989423</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02880717671737177</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.0296340504048293</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1521234567696458</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1586564485907137</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.01471038548416346</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07152722109181084</v>
+        <v>-0.09479800759187167</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.0259488293567915</v>
       </c>
     </row>
     <row r="8">
@@ -3061,55 +3061,55 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.005073980966616101</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03778884491767613</v>
+        <v>0.02485324357121216</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.008412173814428259</v>
+        <v>0.03841081071400285</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008883642745795039</v>
+        <v>0.02412070934935011</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001275065907672057</v>
+        <v>-0.008703235844038941</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.031587539764673</v>
+        <v>-0.02764739855799569</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9975000654354704</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1853189804848713</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1833390132933576</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.005666658101317612</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.007997893383712837</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1834895048184124</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1819103312099944</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>0.01321407489526476</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0003036857201429574</v>
+        <v>0.109657775121121</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0495693010698945</v>
+        <v>0.009193077240058078</v>
       </c>
     </row>
     <row r="9">
@@ -3119,55 +3119,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.005173407296778185</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03787345498271118</v>
+        <v>0.02417193600353505</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.007932935706425738</v>
+        <v>0.04469992483880694</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.009553238901079456</v>
+        <v>0.02558214649378662</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009906822905251609</v>
+        <v>-0.008949608869013572</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.03132012402827247</v>
+        <v>-0.02841295391325693</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9975000654354704</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1855749691866385</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1845828035518677</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.007894351281692425</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.01028857833526004</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1839482319508484</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1833581707171577</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001618141409125537</v>
+        <v>0.01738496953193474</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001939945135960296</v>
+        <v>0.1227751936136885</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.04515876113928785</v>
+        <v>0.0116056692583306</v>
       </c>
     </row>
     <row r="10">
@@ -3177,55 +3177,55 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.05630490221085876</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2301782790609064</v>
+        <v>0.1306039916151416</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.04786130376546804</v>
+        <v>-0.0247843873119773</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01084543295593506</v>
+        <v>-0.02423491115362121</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.01350520231868173</v>
+        <v>-0.03234746858608083</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.194292402100531</v>
+        <v>-0.1519108909407635</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1853189804848713</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1855749691866385</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9971633376463933</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.004597630659703581</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.00576572320989919</v>
       </c>
       <c r="N10" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9665801574725083</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.964174222608446</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.0607027761467206</v>
+        <v>0.0001536804442451389</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0906578831279594</v>
+        <v>0.03895900254045875</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.001649041710880234</v>
       </c>
     </row>
     <row r="11">
@@ -3235,55 +3235,55 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.05664804820026945</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264352361051738</v>
+        <v>0.1232555931111147</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.04911434213698183</v>
+        <v>-0.02242431459498696</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01124038349574497</v>
+        <v>-0.02446500548602659</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01373981472560285</v>
+        <v>-0.03153823550707292</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1975774392545799</v>
+        <v>-0.1584364909989423</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1833390132933576</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1845828035518677</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9971633376463933</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.006278688028786811</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.007504453973913218</v>
       </c>
       <c r="N11" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9642213638570791</v>
       </c>
       <c r="O11" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9672873718501992</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0621148800620477</v>
+        <v>0.0022532279066603</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.08944613144911655</v>
+        <v>0.04142391757928104</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.001465135778594077</v>
       </c>
     </row>
     <row r="12">
@@ -3293,55 +3293,55 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00063019971322716</v>
+        <v>-0.005073980966616101</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.03882601319489151</v>
+        <v>-0.02876835279078499</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.002653280595499959</v>
+        <v>0.05815051796110209</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004013866086611113</v>
+        <v>-0.01086581895867529</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002559122545756721</v>
+        <v>-0.0009853364569797271</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03299936388869475</v>
+        <v>-0.02880717671737177</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.04289805790585169</v>
+        <v>0.005666658101317612</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0428953814320998</v>
+        <v>0.007894351281692425</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.009279674106381362</v>
+        <v>0.004597630659703581</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.009675569737380988</v>
+        <v>0.006278688028786811</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9975000654354704</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1853189804848713</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1833390132933576</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.05946574359251026</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01502653945814526</v>
+        <v>0.04127827038188106</v>
       </c>
       <c r="R12" t="n">
-        <v>0.008037545769291303</v>
+        <v>-0.006325551970712377</v>
       </c>
     </row>
     <row r="13">
@@ -3351,55 +3351,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001782829608940185</v>
+        <v>-0.005173407296778185</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.03864526987692174</v>
+        <v>-0.0293155448395441</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.003254533094766197</v>
+        <v>0.06111870738646112</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003784897616836014</v>
+        <v>-0.01188745023032048</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002326493781731304</v>
+        <v>-0.0006416352183754023</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03280337917313661</v>
+        <v>-0.0296340504048293</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.04225797328940766</v>
+        <v>0.007997893383712837</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.04237614760923573</v>
+        <v>0.01028857833526004</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.009707136967591255</v>
+        <v>0.00576572320989919</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01013661336192944</v>
+        <v>0.007504453973913218</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9987451715167277</v>
+        <v>0.9975000654354704</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1855749691866385</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1845828035518677</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.06294623343742693</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01509284879446856</v>
+        <v>0.04303953128849636</v>
       </c>
       <c r="R13" t="n">
-        <v>0.007909332230194155</v>
+        <v>-0.006263309386334265</v>
       </c>
     </row>
     <row r="14">
@@ -3409,55 +3409,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0220866110558817</v>
+        <v>-0.05630490221085876</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2172948544401279</v>
+        <v>0.1206423929794598</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04910470280271267</v>
+        <v>-0.01321030996982399</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01088924325053562</v>
+        <v>-0.03417151635587255</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.01329062417733071</v>
+        <v>-0.0309135937111044</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1946003793451011</v>
+        <v>-0.1521234567696458</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1606509652284165</v>
+        <v>0.1834895048184124</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1599641109553714</v>
+        <v>0.1839482319508484</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9706776205724464</v>
+        <v>0.9665801574725083</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9695907087740681</v>
+        <v>0.9642213638570791</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1670845274833656</v>
+        <v>0.1853189804848713</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1664411958794639</v>
+        <v>0.1855749691866385</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9971633376463933</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.06281470259382184</v>
+        <v>0.0173583993666955</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.08508271108624274</v>
+        <v>0.04904246472406176</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.009682475810380198</v>
       </c>
     </row>
     <row r="15">
@@ -3467,55 +3467,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02382112679428315</v>
+        <v>-0.05664804820026945</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2135337740845544</v>
+        <v>0.113401105810771</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.05034905349114259</v>
+        <v>-0.01109872964443182</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01117514480216602</v>
+        <v>-0.03511069197529559</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01350674418492096</v>
+        <v>-0.03001540568997987</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1979062783622375</v>
+        <v>-0.1586564485907137</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1607715958463615</v>
+        <v>0.1819103312099944</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1604536328671998</v>
+        <v>0.1833581707171577</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9695100844200296</v>
+        <v>0.964174222608446</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9706369394626907</v>
+        <v>0.9672873718501992</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1673154559815213</v>
+        <v>0.1833390132933576</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1670591531244908</v>
+        <v>0.1845828035518677</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9988553318810912</v>
+        <v>0.9971633376463933</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.06437996647699736</v>
+        <v>0.01983551865698275</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.08413472641851127</v>
+        <v>0.05142648590372823</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.009416907256407059</v>
       </c>
     </row>
     <row r="16">
@@ -3525,55 +3525,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03278743538109485</v>
+        <v>0.02832626862665198</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03201328201338007</v>
+        <v>0.01479912527287463</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3406556471016648</v>
+        <v>0.5934652689365397</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.2787433568514107</v>
+        <v>-0.6244999081442383</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01292697243921179</v>
+        <v>-0.1396921401374851</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006391245112363666</v>
+        <v>0.01471038548416346</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0002947113615300593</v>
+        <v>0.01321407489526476</v>
       </c>
       <c r="I16" t="n">
-        <v>0.001618141409125537</v>
+        <v>0.01738496953193474</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.0607027761467206</v>
+        <v>0.0001536804442451389</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0621148800620477</v>
+        <v>0.0022532279066603</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01231767746807113</v>
+        <v>0.05946574359251026</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.01282555572957506</v>
+        <v>0.06294623343742693</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.06281470259382184</v>
+        <v>0.0173583993666955</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.06437996647699736</v>
+        <v>0.01983551865698275</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.561489052282327</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.3880927307664518</v>
       </c>
     </row>
     <row r="17">
@@ -3583,55 +3583,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205942488249974</v>
+        <v>-0.08755025653870342</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0328258624092044</v>
+        <v>-0.08319738517059741</v>
       </c>
       <c r="D17" t="n">
-        <v>0.001870529627448011</v>
+        <v>0.5809145654800234</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1080929040278991</v>
+        <v>-0.1398101858192076</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09970895457070136</v>
+        <v>0.005360170795150452</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07152722109181084</v>
+        <v>-0.09479800759187167</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0003036857201429574</v>
+        <v>0.109657775121121</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001939945135960296</v>
+        <v>0.1227751936136885</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0906578831279594</v>
+        <v>0.03895900254045875</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.08944613144911655</v>
+        <v>0.04142391757928104</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01502653945814526</v>
+        <v>0.04127827038188106</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01509284879446856</v>
+        <v>0.04303953128849636</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.08508271108624274</v>
+        <v>0.04904246472406176</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.08413472641851127</v>
+        <v>0.05142648590372823</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1753447427527878</v>
+        <v>0.561489052282327</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.3633536987854537</v>
       </c>
     </row>
     <row r="18">
@@ -3641,52 +3641,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01704576668710548</v>
+        <v>0.105849097511963</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0237062193131504</v>
+        <v>0.02556200174223759</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2793745914621267</v>
+        <v>0.4839055081404902</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1141084438783591</v>
+        <v>0.003712506325054677</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04697018934361992</v>
+        <v>-0.1048579714081211</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02043428162814625</v>
+        <v>0.0259488293567915</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0495693010698945</v>
+        <v>0.009193077240058078</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.04515876113928785</v>
+        <v>0.0116056692583306</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.1039851967048387</v>
+        <v>-0.001649041710880234</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.103526613124189</v>
+        <v>-0.001465135778594077</v>
       </c>
       <c r="L18" t="n">
-        <v>0.008037545769291303</v>
+        <v>-0.006325551970712377</v>
       </c>
       <c r="M18" t="n">
-        <v>0.007909332230194155</v>
+        <v>-0.006263309386334265</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.1026404825093185</v>
+        <v>-0.009682475810380198</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.1020413442389173</v>
+        <v>-0.009416907256407059</v>
       </c>
       <c r="P18" t="n">
-        <v>0.2732713364047973</v>
+        <v>0.3880927307664518</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3336034341496384</v>
+        <v>0.3633536987854537</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
